--- a/lab/vars.xlsx
+++ b/lab/vars.xlsx
@@ -1,75 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lazemir/my_own_programms/lab/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401CC0ED-C73F-2942-8F95-27B318829230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{7F5AE942-C28F-664E-BC3D-A3AD264A0660}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14520" windowWidth="25600" xWindow="0" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Vars" sheetId="1" r:id="rId1"/>
+    <sheet name="Vars" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Переменная</t>
-  </si>
-  <si>
-    <t>Значение</t>
-  </si>
-  <si>
-    <t>Погрешность</t>
-  </si>
-  <si>
-    <t>Формула</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>x + y</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -122,44 +81,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -459,91 +409,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483B2BAF-1BA1-2142-83E8-03A209D94390}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="54.1640625" customWidth="1"/>
+    <col customWidth="1" max="3" min="1" style="3" width="11.83203125"/>
+    <col customWidth="1" max="4" min="4" style="3" width="39.1640625"/>
+    <col customWidth="1" max="5" min="5" style="3" width="46"/>
+    <col customWidth="1" max="6" min="6" style="3" width="9.6640625"/>
+    <col customWidth="1" max="7" min="7" style="3" width="17.1640625"/>
+    <col customWidth="1" max="8" min="8" style="3" width="9.83203125"/>
+    <col customWidth="1" max="9" min="9" style="3" width="23"/>
+    <col customWidth="1" max="10" min="10" style="5" width="24.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row customHeight="1" ht="17" r="1" s="3" thickBot="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Переменная</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Значение</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Погрешность</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Формула</t>
+        </is>
+      </c>
+      <c r="E1" s="8" t="inlineStr">
+        <is>
+          <t>Дефолтная формула</t>
+        </is>
+      </c>
+      <c r="F1" s="7" t="n"/>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Переменная</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Значение</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Абсолютная погрешность</t>
+        </is>
+      </c>
+      <c r="J1" s="6" t="inlineStr">
+        <is>
+          <t>Относительная погрешность</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>New A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>x + y</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>x + y</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.414213562373095</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1767766952966369</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4714045207910317</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>New B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>a + b</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C6" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>New C</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
+      <c r="C9" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/lab/vars.xlsx
+++ b/lab/vars.xlsx
@@ -1,34 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Lazemir/my_public_programms/lab/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08EDA7DE-F3C5-924B-B045-E7AC0F0410BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="14520" windowWidth="25600" xWindow="0" yWindow="460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Vars" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Vars" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+  <si>
+    <t>Переменная</t>
+  </si>
+  <si>
+    <t>Значение</t>
+  </si>
+  <si>
+    <t>Формула</t>
+  </si>
+  <si>
+    <t>Дефолтная формула</t>
+  </si>
+  <si>
+    <t>Абсолютная погрешность</t>
+  </si>
+  <si>
+    <t>Относительная погрешность</t>
+  </si>
+  <si>
+    <t>New A</t>
+  </si>
+  <si>
+    <t>x + y</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>New B</t>
+  </si>
+  <si>
+    <t>k + j</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>New C</t>
+  </si>
+  <si>
+    <t>New s</t>
+  </si>
+  <si>
+    <t>A + B + C</t>
+  </si>
+  <si>
+    <t>New D</t>
+  </si>
+  <si>
+    <t>s + x</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -81,35 +163,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,237 +503,242 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="3" min="1" style="3" width="11.83203125"/>
-    <col customWidth="1" max="4" min="4" style="3" width="39.1640625"/>
-    <col customWidth="1" max="5" min="5" style="3" width="46"/>
-    <col customWidth="1" max="6" min="6" style="3" width="9.6640625"/>
-    <col customWidth="1" max="7" min="7" style="3" width="17.1640625"/>
-    <col customWidth="1" max="8" min="8" style="3" width="9.83203125"/>
-    <col customWidth="1" max="9" min="9" style="3" width="23"/>
-    <col customWidth="1" max="10" min="10" style="5" width="24.83203125"/>
+    <col min="1" max="2" width="11.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="46" style="3" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="23" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="17" r="1" s="3" thickBot="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Переменная</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Значение</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Погрешность</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Формула</t>
-        </is>
-      </c>
-      <c r="E1" s="8" t="inlineStr">
-        <is>
-          <t>Дефолтная формула</t>
-        </is>
-      </c>
-      <c r="F1" s="7" t="n"/>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Переменная</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Значение</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Абсолютная погрешность</t>
-        </is>
-      </c>
-      <c r="J1" s="6" t="inlineStr">
-        <is>
-          <t>Относительная погрешность</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>New A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>x + y</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>x + y</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+    <row r="1" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="n">
-        <v>1.414213562373095</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7071067811865476</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1.4142135623730949</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0.70710678118654757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.7071067811865476</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1767766952966369</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="I3">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0.17677669529663689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="9">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="I4" t="n">
-        <v>2.82842712474619</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.4714045207910317</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>New B</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>a + b</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="I4">
+        <v>2.8284271247461898</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.47140452079103168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>3.2403703492039302</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.27003086243366092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>3.3911649915626341</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0.24222607082590239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="9">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="9">
         <v>0.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>New C</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>y</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="4" t="n"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>